--- a/biology/Botanique/Jardin_de_la_Royal_National_Rose_Society/Jardin_de_la_Royal_National_Rose_Society.xlsx
+++ b/biology/Botanique/Jardin_de_la_Royal_National_Rose_Society/Jardin_de_la_Royal_National_Rose_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bone Hill, les Royal National Rose Society Gardens, est la roseraie de la Royal National Rose Society à Chiswell Green, près de St Albans (Hertfordshire) en Angleterre. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces jardins contiennent des centaines de variétés de roses. Après des travaux menés sous la direction de Michael Balston, ils ont rouvert au public à l'été 2007. Ils regroupent :
 une collection qui retrace l'histoire des roses,
@@ -547,10 +561,12 @@
           <t>Développements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Royal Entomological Society a installé son siège dans le manoir adjacent au Jardin, après sa réfection.
-Butterfly World a ouvert en 2009 à côté du Jardin, jusqu'à sa fermeture en décembre 2015[1].
+Butterfly World a ouvert en 2009 à côté du Jardin, jusqu'à sa fermeture en décembre 2015.
 </t>
         </is>
       </c>
